--- a/testing_output_data.xlsx
+++ b/testing_output_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>rotation</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -471,23 +476,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[ 34.045 313.5  ]</t>
+          <t>[  3.245 306.13 ]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>83.80216732008984</v>
+        <v>89.39268336526548</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E2" t="n">
-        <v>6.197832679910164</v>
+        <v>30.60731663473452</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8006301000714302</v>
+        <v>0.9672413000371307</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -496,23 +506,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[ 80.19 302.5 ]</t>
+          <t>[-94.215 287.815]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>75.15290612439181</v>
+        <v>108.1256362251303</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.152906124391805</v>
+        <v>-48.12563622513034</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7004045000066981</v>
+        <v>1.14944390009623</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -521,23 +536,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[ 39.16 310.53]</t>
+          <t>[ 80.19 293.7 ]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82.81254276527604</v>
+        <v>74.72854064346957</v>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E4" t="n">
-        <v>7.187457234723965</v>
+        <v>5.271459356530428</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6833591000176966</v>
+        <v>1.267527100048028</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -546,23 +566,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[ 20.075 305.415]</t>
+          <t>[-112.53   297.385]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86.23934459562932</v>
+        <v>110.7265609648685</v>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>3.760655404370681</v>
+        <v>-10.72656096486853</v>
       </c>
       <c r="F5" t="n">
-        <v>0.933898700051941</v>
+        <v>0.8003735000966117</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -571,23 +596,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[ 15.73 317.9 ]</t>
+          <t>[ 15.73  303.215]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87.1672596726992</v>
+        <v>87.03030719679616</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>2.832740327300797</v>
+        <v>-27.03030719679616</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7679612999781966</v>
+        <v>0.7343052999349311</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -596,23 +626,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-94.93 291.5 ]</t>
+          <t>[130.02 291.5 ]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>108.0383770836871</v>
+        <v>65.96132520631915</v>
       </c>
       <c r="D7" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>1.961622916312891</v>
+        <v>14.03867479368085</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8338122999994084</v>
+        <v>0.7839565000031143</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -621,23 +656,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-88.33  295.185]</t>
+          <t>[ -3.355 326.7  ]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>106.6590799853401</v>
+        <v>90.58837031918435</v>
       </c>
       <c r="D8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E8" t="n">
-        <v>3.340920014659929</v>
+        <v>29.41162968081565</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7672292999923229</v>
+        <v>0.6001145000336692</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -646,23 +686,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[146.135 299.585]</t>
+          <t>[-59.015 311.3  ]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>63.99727588371842</v>
+        <v>100.7345167282775</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>6.002724116281584</v>
+        <v>-0.7345167282774696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6504078999860212</v>
+        <v>0.6845683999126777</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -671,23 +716,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[105.105 298.815]</t>
+          <t>[160.82  281.215]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>70.62121926857102</v>
+        <v>60.23581378934414</v>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6212192685710249</v>
+        <v>39.76418621065586</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7000966999912634</v>
+        <v>0.6670689999591559</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -696,23 +746,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[-145.36377235  305.1274393 ]</t>
+          <t>[ -0.44 311.3 ]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>115.4732923551469</v>
+        <v>90.08098338001184</v>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E11" t="n">
-        <v>-25.47329235514688</v>
+        <v>-10.08098338001184</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7181688999990001</v>
+        <v>0.6339957000454888</v>
       </c>
       <c r="G11" t="n">
         <v>30</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -721,23 +776,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[ 68.87189935 323.90037111]</t>
+          <t>[-66.385 298.815]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>77.99581118700112</v>
+        <v>102.5254577970792</v>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.995811187001124</v>
+        <v>-42.52545779707916</v>
       </c>
       <c r="F12" t="n">
-        <v>1.084137100027874</v>
+        <v>0.8169905000831932</v>
       </c>
       <c r="G12" t="n">
         <v>30</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -746,23 +806,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[ 13.33770482 330.7684176 ]</t>
+          <t>[-99.33 300.3 ]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>87.69089075520195</v>
+        <v>108.3026262417482</v>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E13" t="n">
-        <v>2.309109244798051</v>
+        <v>11.6973737582518</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8508972000563517</v>
+        <v>0.7332341000437737</v>
       </c>
       <c r="G13" t="n">
         <v>30</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -771,23 +836,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[ 61.55689935 336.57032277]</t>
+          <t>[ -4.07  305.415]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79.6354634269026</v>
+        <v>90.76348581478625</v>
       </c>
       <c r="D14" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>10.3645365730974</v>
+        <v>-30.76348581478625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8013935999479145</v>
+        <v>0.7841622000560164</v>
       </c>
       <c r="G14" t="n">
         <v>30</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -796,23 +866,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[-23.66741295 306.86316171]</t>
+          <t>[122.705 321.53 ]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>94.41031626967852</v>
+        <v>69.11172207657452</v>
       </c>
       <c r="D15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>15.58968373032148</v>
+        <v>30.88827792342548</v>
       </c>
       <c r="F15" t="n">
-        <v>1.083640999975614</v>
+        <v>0.7169614000013098</v>
       </c>
       <c r="G15" t="n">
         <v>30</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -821,23 +896,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[ 42.30538819 328.88491822]</t>
+          <t>[-70.015 297.385]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>82.67013417572281</v>
+        <v>103.2481978602575</v>
       </c>
       <c r="D16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
-        <v>7.329865824277192</v>
+        <v>-23.24819786025748</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9178895000368357</v>
+        <v>0.6993964000139385</v>
       </c>
       <c r="G16" t="n">
         <v>30</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -846,23 +926,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[-79.62186337 310.05911275]</t>
+          <t>[  9.845 334.015]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>104.4021174279264</v>
+        <v>88.31171149392749</v>
       </c>
       <c r="D17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E17" t="n">
-        <v>5.597882572073587</v>
+        <v>31.68828850607251</v>
       </c>
       <c r="F17" t="n">
-        <v>1.000492800027132</v>
+        <v>0.7830952999647707</v>
       </c>
       <c r="G17" t="n">
         <v>30</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -871,23 +956,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-34.37266884 321.00520882]</t>
+          <t>[108.02  287.815]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>96.11184257223236</v>
+        <v>69.42835788965365</v>
       </c>
       <c r="D18" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E18" t="n">
-        <v>13.88815742776764</v>
+        <v>-9.428357889653654</v>
       </c>
       <c r="F18" t="n">
-        <v>1.484491299954243</v>
+        <v>0.7677989000221714</v>
       </c>
       <c r="G18" t="n">
         <v>30</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -896,23 +986,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[ 91.81726247 303.2978364 ]</t>
+          <t>[ 30.36  331.815]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>73.15737737732701</v>
+        <v>84.77217745633909</v>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.157377377327009</v>
+        <v>15.22782254366091</v>
       </c>
       <c r="F19" t="n">
-        <v>1.150386399938725</v>
+        <v>0.6998670999892056</v>
       </c>
       <c r="G19" t="n">
         <v>30</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -921,23 +1016,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[ 51.73919181 319.91509105]</t>
+          <t>[-63.415 301.015]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80.81321968669566</v>
+        <v>101.8965718941499</v>
       </c>
       <c r="D20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
-        <v>9.18678031330434</v>
+        <v>-21.89657189414994</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9848466999828815</v>
+        <v>0.7166497999569401</v>
       </c>
       <c r="G20" t="n">
         <v>30</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -946,23 +1046,2044 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[ 51.72791236 297.93462762]</t>
+          <t>[-183.59  270.27]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>80.15039732133222</v>
+        <v>124.1876278535357</v>
       </c>
       <c r="D21" t="n">
+        <v>120</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-4.187627853535687</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8840223000152037</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[178.365 317.13 ]</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>60.64507720642275</v>
+      </c>
+      <c r="D22" t="n">
+        <v>120</v>
+      </c>
+      <c r="E22" t="n">
+        <v>59.35492279357725</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6829626000253484</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[ 89.705 297.385]</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>73.2142723695716</v>
+      </c>
+      <c r="D23" t="n">
+        <v>60</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-13.2142723695716</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6832432999508455</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[-37.785 305.415]</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>97.0526203103701</v>
+      </c>
+      <c r="D24" t="n">
+        <v>80</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-17.0526203103701</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6665169999469072</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[148.335 295.185]</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>63.31976871995403</v>
+      </c>
+      <c r="D25" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36.68023128004597</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6846939000533894</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[ 55.275 303.215]</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>79.66863321317707</v>
+      </c>
+      <c r="D26" t="n">
+        <v>60</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-19.66863321317707</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7335857000434771</v>
+      </c>
+      <c r="G26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[-152.845  285.615]</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>118.1531714622161</v>
+      </c>
+      <c r="D27" t="n">
+        <v>80</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-38.15317146221612</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6836142999818549</v>
+      </c>
+      <c r="G27" t="n">
+        <v>30</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[-72.215 294.415]</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>103.7815972356536</v>
+      </c>
+      <c r="D28" t="n">
+        <v>120</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16.21840276434637</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7505377000197768</v>
+      </c>
+      <c r="G28" t="n">
+        <v>30</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[-71.5   312.015]</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>102.9068089331654</v>
+      </c>
+      <c r="D29" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.906808933165422</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7173073999583721</v>
+      </c>
+      <c r="G29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[ 97.02  312.015]</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>72.7270965782746</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>27.2729034217254</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7671255000168458</v>
+      </c>
+      <c r="G30" t="n">
+        <v>30</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[165.22 260.7 ]</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>57.63530531794237</v>
+      </c>
+      <c r="D31" t="n">
+        <v>80</v>
+      </c>
+      <c r="E31" t="n">
+        <v>22.36469468205763</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7671132000396028</v>
+      </c>
+      <c r="G31" t="n">
+        <v>30</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[-145.53   288.585]</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>116.7612688329719</v>
+      </c>
+      <c r="D32" t="n">
+        <v>60</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-56.76126883297189</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6505812000250444</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[131.505 274.67 ]</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>64.41608768342556</v>
+      </c>
+      <c r="D33" t="n">
+        <v>120</v>
+      </c>
+      <c r="E33" t="n">
+        <v>55.58391231657444</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6662716999417171</v>
+      </c>
+      <c r="G33" t="n">
+        <v>30</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[-117.645  309.815]</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>110.793102219234</v>
+      </c>
+      <c r="D34" t="n">
+        <v>60</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-50.793102219234</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8002316999481991</v>
+      </c>
+      <c r="G34" t="n">
+        <v>30</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[ 47.96 312.73]</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>81.28109908272801</v>
+      </c>
+      <c r="D35" t="n">
+        <v>100</v>
+      </c>
+      <c r="E35" t="n">
+        <v>18.71890091727199</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.716656900011003</v>
+      </c>
+      <c r="G35" t="n">
+        <v>30</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[-164.56   288.585]</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>119.6931119145875</v>
+      </c>
+      <c r="D36" t="n">
+        <v>80</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-39.69311191458753</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6502601000247523</v>
+      </c>
+      <c r="G36" t="n">
+        <v>30</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[173.965 303.93 ]</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>60.2138216392234</v>
+      </c>
+      <c r="D37" t="n">
+        <v>120</v>
+      </c>
+      <c r="E37" t="n">
+        <v>59.7861783607766</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6839160000672564</v>
+      </c>
+      <c r="G37" t="n">
+        <v>30</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[-103.015  309.815]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>108.3922181195092</v>
+      </c>
+      <c r="D38" t="n">
+        <v>60</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-48.39221811950924</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8824235999491066</v>
+      </c>
+      <c r="G38" t="n">
+        <v>30</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[ 62.59 298.1 ]</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>78.14224582982015</v>
+      </c>
+      <c r="D39" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" t="n">
+        <v>21.85775417017985</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8170932999346405</v>
+      </c>
+      <c r="G39" t="n">
+        <v>30</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[-141.845  289.3  ]</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>116.1189063267809</v>
+      </c>
+      <c r="D40" t="n">
+        <v>80</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-36.11890632678093</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7015338999917731</v>
+      </c>
+      <c r="G40" t="n">
+        <v>30</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[-144.045  282.7  ]</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>117.0003468093182</v>
+      </c>
+      <c r="D41" t="n">
+        <v>120</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.999653190681784</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7169657000340521</v>
+      </c>
+      <c r="G41" t="n">
+        <v>30</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[146.85  266.585]</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>61.1515564350405</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>0.6835390999913216</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[ 68.475 311.3  ]</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>77.59451260657491</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>0.9669853000668809</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[-45.87 315.7 ]</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>98.26700623347313</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>0.8671218999661505</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[142.45  296.615]</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>64.34725217589862</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0.8331171999452636</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[ 83.105 323.015]</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>75.57190653237369</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>0.7671130000380799</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[-148.445  292.215]</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>116.9305352448066</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>0.7673307999502867</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[-52.47 309.1 ]</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>99.63417267813965</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>0.7668893999652937</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[-85.415 307.615]</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>105.5182989404601</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>0.7837520999601111</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[-102.90296998  303.41317225]</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>108.734433504683</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>0.7171713000861928</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[131.50479718 293.18700985]</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>65.84206980115729</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>0.8828502999385819</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[-169.24455056  260.03016047]</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>123.0586975740958</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>1.167212000000291</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[113.08826185 298.68538474]</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>69.26233176060303</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0.8836744000436738</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[  0.41563354 332.58010159]</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>89.92839609106704</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>0.7503434000536799</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[ 88.36425069 300.47862823]</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>73.61253347353617</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>0.7504066000692546</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[-157.13105118  271.27896409]</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>120.0804150763396</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>1.166954299900681</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[176.30733189 274.21674342]</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>57.26105711960329</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>0.8502317999955267</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[-15.95613351 315.50683393]</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>92.89515405501677</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>0.7335532000288367</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[ 89.0439948 294.9012769]</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>73.19856665762572</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>0.7339862999506295</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[-105.47174942  285.86242876]</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>110.2520343944086</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>0.9170639999210835</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[-151.5424204   293.93917163]</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>117.2736890060937</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>0.9165576000232249</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[107.86619057 287.16027751]</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>69.41228453803249</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>0.7835856999736279</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[ 99.25223829 305.05008051]</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>71.9769901034748</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>0.6840451000025496</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[-68.53270355 321.54212453]</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>102.0318459512886</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>0.7672423999756575</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[135.18073768 275.05009414]</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>63.82695430035599</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>0.7504722999874502</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[ 38.49487642 326.68491822]</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>83.27954927319671</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>0.8501096999971196</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[-154.4389799   287.18615986]</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>118.2698570565823</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>0.9001910999650136</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[ -0.77130634 314.17594177]</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>90.14066165907872</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>0.7163784999866039</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[  5.0498417 325.9834176]</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>89.11249634090244</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>0.7498779000015929</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[ 50.16171598 308.01735933]</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>80.75037989332777</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>0.8509238000260666</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[143.04502889 292.22874218]</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>63.9184005691053</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>0.7675738999387249</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[-160.49049106  256.63768464]</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>122.0201408860343</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>1.084101999993436</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[102.43226247 284.91211707]</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>70.22535681564688</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>0.7333528999006376</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[ -7.20539001 328.18010159]</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>91.25776096306733</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>0.7670380999334157</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[ 57.04023953 313.70340706]</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>79.69457780024631</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>0.7339682000456378</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[-149.46571223  291.77220758]</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>117.1246339915386</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>1.000618999940343</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[120.7092854  303.08538474]</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>68.28417779858773</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>0.7505454999627545</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[ 10.23665709 333.16958981]</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>88.24013713438035</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>0.7337061000289395</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[ 56.1576323  300.49212762]</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>79.41435902268134</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>0.83359199995175</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[-125.45670108  291.21738041]</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>113.3064196195308</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>1.117722900002263</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[ 70.675 295.9  ]</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>76.56671550837386</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>0.9661733000539243</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[228.965 213.84 ]</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>43.04369445789099</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>0.6339612000156194</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[ 94.105 323.015]</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>73.757404126849</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>0.7002956999931484</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[-70.785 309.815]</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>102.8697539599012</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>0.819056500098668</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[163.735 280.5  ]</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>59.72680131245059</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>0.6505704000592232</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[ 47.96 315.7 ]</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>81.36188056483098</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>0.6661558999912813</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[-143.33   266.585]</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>118.2647929785225</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>0.6998257000232115</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[ -3.355 320.815]</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>90.59916254888672</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>0.7345369000686333</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[-70.785 311.3  ]</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>102.8103913824577</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>0.699759199982509</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[130.02  288.585]</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>65.74637952192171</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>0.6505553000606596</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[202.565 227.04 ]</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>48.26066966920212</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>0.6169675999553874</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="E21" t="n">
-        <v>9.849602678667779</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.049644600017928</v>
-      </c>
-      <c r="G21" t="n">
-        <v>30</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[-135.96   286.385]</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>115.3958211449348</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>0.7177020000526682</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[150.535 269.5  ]</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>60.81352214096833</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>0.6002771999919787</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[-50.27 314.93]</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>99.06920167897817</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>0.6167375999502838</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[  9.845 305.415]</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>88.15371970416599</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>0.5504944000858814</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[-212.905  270.985]</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>128.1556858121873</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>0.7002594000659883</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[124.905 296.615]</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>67.16397106436369</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>0.600160300033167</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[-57.585 298.815]</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>100.9078206746094</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>0.6670360000571236</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[ 71.39  299.585]</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>76.59660023087048</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>0.6513702999800444</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[-157.245  281.985]</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>119.1456129049175</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>0.6336878000292927</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
       </c>
     </row>
   </sheetData>
